--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 7.xlsx_with_dialog_acts.xlsx
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
